--- a/last_year_data.xlsx
+++ b/last_year_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulde\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68233A6D-50D3-4BCB-9471-26FA528AF317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A43570E-F622-4193-84AE-B5C3F97B628C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{16CA4DA6-176A-4434-B602-6FBDCEC079A6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -51,10 +51,7 @@
     <t>Ballclay</t>
   </si>
   <si>
-    <t>Silica Yearly</t>
-  </si>
-  <si>
-    <t>Ballclay Yearly</t>
+    <t>Ball Clay</t>
   </si>
 </sst>
 </file>
@@ -102,10 +99,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,7 +421,7 @@
   <dimension ref="A1:AI367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,14 +433,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="AH1" t="s">
         <v>3</v>
@@ -453,9 +450,9 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
       <c r="AH2" t="s">
         <v>2</v>
       </c>
